--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.05304466666667</v>
+        <v>21.08106866666667</v>
       </c>
       <c r="H2">
-        <v>84.15913400000001</v>
+        <v>63.243206</v>
       </c>
       <c r="I2">
-        <v>0.1910263038152934</v>
+        <v>0.1310335697296471</v>
       </c>
       <c r="J2">
-        <v>0.2057786722710961</v>
+        <v>0.1384675441775393</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N2">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O2">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P2">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q2">
-        <v>0.9875887354602222</v>
+        <v>1.333532187670222</v>
       </c>
       <c r="R2">
-        <v>8.888298619142001</v>
+        <v>12.001789689032</v>
       </c>
       <c r="S2">
-        <v>0.0009620826213560343</v>
+        <v>0.02289284200680216</v>
       </c>
       <c r="T2">
-        <v>0.001036381275686341</v>
+        <v>0.02419162981262422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.05304466666667</v>
+        <v>21.08106866666667</v>
       </c>
       <c r="H3">
-        <v>84.15913400000001</v>
+        <v>63.243206</v>
       </c>
       <c r="I3">
-        <v>0.1910263038152934</v>
+        <v>0.1310335697296471</v>
       </c>
       <c r="J3">
-        <v>0.2057786722710961</v>
+        <v>0.1384675441775393</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.1703</v>
       </c>
       <c r="O3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q3">
-        <v>1.592477835577778</v>
+        <v>1.196701997977778</v>
       </c>
       <c r="R3">
-        <v>14.3323005202</v>
+        <v>10.7703179818</v>
       </c>
       <c r="S3">
-        <v>0.001551349459033761</v>
+        <v>0.02054386839870164</v>
       </c>
       <c r="T3">
-        <v>0.001671155362023462</v>
+        <v>0.02170939104340949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.05304466666667</v>
+        <v>21.08106866666667</v>
       </c>
       <c r="H4">
-        <v>84.15913400000001</v>
+        <v>63.243206</v>
       </c>
       <c r="I4">
-        <v>0.1910263038152934</v>
+        <v>0.1310335697296471</v>
       </c>
       <c r="J4">
-        <v>0.2057786722710961</v>
+        <v>0.1384675441775393</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N4">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q4">
-        <v>6.976633241346889</v>
+        <v>5.102609427560666</v>
       </c>
       <c r="R4">
-        <v>62.789699172122</v>
+        <v>45.92348484804599</v>
       </c>
       <c r="S4">
-        <v>0.006796450137664625</v>
+        <v>0.08759685932414331</v>
       </c>
       <c r="T4">
-        <v>0.007321318884113626</v>
+        <v>0.09256652332150563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.05304466666667</v>
+        <v>19.30594133333333</v>
       </c>
       <c r="H5">
-        <v>84.15913400000001</v>
+        <v>57.917824</v>
       </c>
       <c r="I5">
-        <v>0.1910263038152934</v>
+        <v>0.1199999131874091</v>
       </c>
       <c r="J5">
-        <v>0.2057786722710961</v>
+        <v>0.1268079112464182</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.649330666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N5">
-        <v>19.947992</v>
+        <v>0.189772</v>
       </c>
       <c r="O5">
-        <v>0.951263872921625</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P5">
-        <v>0.9512638729216248</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q5">
-        <v>186.5339701954365</v>
+        <v>1.221242366236444</v>
       </c>
       <c r="R5">
-        <v>1678.805731758928</v>
+        <v>10.991181296128</v>
       </c>
       <c r="S5">
-        <v>0.181716421597239</v>
+        <v>0.02096515464775417</v>
       </c>
       <c r="T5">
-        <v>0.1957498167492726</v>
+        <v>0.02215457827613487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>57.917824</v>
       </c>
       <c r="I6">
-        <v>0.1314631854902962</v>
+        <v>0.1199999131874091</v>
       </c>
       <c r="J6">
-        <v>0.1416156792149385</v>
+        <v>0.1268079112464182</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03520433333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N6">
-        <v>0.105613</v>
+        <v>0.1703</v>
       </c>
       <c r="O6">
-        <v>0.005036388194404308</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P6">
-        <v>0.005036388194404307</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q6">
-        <v>0.6796527940124444</v>
+        <v>1.095933936355556</v>
       </c>
       <c r="R6">
-        <v>6.116875146111999</v>
+        <v>9.8634054272</v>
       </c>
       <c r="S6">
-        <v>0.0006620996354021113</v>
+        <v>0.01881397591063241</v>
       </c>
       <c r="T6">
-        <v>0.0007132315349406634</v>
+        <v>0.01988135594516456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>57.917824</v>
       </c>
       <c r="I7">
-        <v>0.1314631854902962</v>
+        <v>0.1199999131874091</v>
       </c>
       <c r="J7">
-        <v>0.1416156792149385</v>
+        <v>0.1268079112464182</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05676666666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N7">
-        <v>0.1703</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q7">
-        <v>1.095933936355556</v>
+        <v>4.672945181909333</v>
       </c>
       <c r="R7">
-        <v>9.8634054272</v>
+        <v>42.05650663718399</v>
       </c>
       <c r="S7">
-        <v>0.001067629628066427</v>
+        <v>0.08022078262902249</v>
       </c>
       <c r="T7">
-        <v>0.001150079350083749</v>
+        <v>0.08477197702511882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.30594133333333</v>
+        <v>51.50074633333333</v>
       </c>
       <c r="H8">
-        <v>57.917824</v>
+        <v>154.502239</v>
       </c>
       <c r="I8">
-        <v>0.1314631854902962</v>
+        <v>0.3201131186706933</v>
       </c>
       <c r="J8">
-        <v>0.1416156792149385</v>
+        <v>0.3382742108972344</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2486943333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7460829999999999</v>
+        <v>0.189772</v>
       </c>
       <c r="O8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q8">
-        <v>4.801278209265778</v>
+        <v>3.257799877723111</v>
       </c>
       <c r="R8">
-        <v>43.21150388339199</v>
+        <v>29.320198899508</v>
       </c>
       <c r="S8">
-        <v>0.004677277250714528</v>
+        <v>0.05592688244052945</v>
       </c>
       <c r="T8">
-        <v>0.005038488853485224</v>
+        <v>0.05909980229512072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.30594133333333</v>
+        <v>51.50074633333333</v>
       </c>
       <c r="H9">
-        <v>57.917824</v>
+        <v>154.502239</v>
       </c>
       <c r="I9">
-        <v>0.1314631854902962</v>
+        <v>0.3201131186706933</v>
       </c>
       <c r="J9">
-        <v>0.1416156792149385</v>
+        <v>0.3382742108972344</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>6.649330666666667</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N9">
-        <v>19.947992</v>
+        <v>0.1703</v>
       </c>
       <c r="O9">
-        <v>0.951263872921625</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P9">
-        <v>0.9512638729216248</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q9">
-        <v>128.3715877566009</v>
+        <v>2.923525700188889</v>
       </c>
       <c r="R9">
-        <v>1155.344289809408</v>
+        <v>26.3117313017</v>
       </c>
       <c r="S9">
-        <v>0.1250561789761131</v>
+        <v>0.05018837383608839</v>
       </c>
       <c r="T9">
-        <v>0.1347138794764288</v>
+        <v>0.05303572882648156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.41565033333333</v>
+        <v>51.50074633333333</v>
       </c>
       <c r="H10">
-        <v>103.246951</v>
+        <v>154.502239</v>
       </c>
       <c r="I10">
-        <v>0.2343522621053671</v>
+        <v>0.3201131186706933</v>
       </c>
       <c r="J10">
-        <v>0.2524505598265651</v>
+        <v>0.3382742108972344</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.03520433333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N10">
-        <v>0.105613</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O10">
-        <v>0.005036388194404308</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P10">
-        <v>0.005036388194404307</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q10">
-        <v>1.211580026218111</v>
+        <v>12.46560114774433</v>
       </c>
       <c r="R10">
-        <v>10.904220235963</v>
+        <v>112.190410329699</v>
       </c>
       <c r="S10">
-        <v>0.001180288966199415</v>
+        <v>0.2139978623940755</v>
       </c>
       <c r="T10">
-        <v>0.001271439019181271</v>
+        <v>0.2261386797756321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.41565033333333</v>
+        <v>25.9122055</v>
       </c>
       <c r="H11">
-        <v>103.246951</v>
+        <v>51.824411</v>
       </c>
       <c r="I11">
-        <v>0.2343522621053671</v>
+        <v>0.1610624603486987</v>
       </c>
       <c r="J11">
-        <v>0.2524505598265651</v>
+        <v>0.1134667164029833</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.05676666666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N11">
-        <v>0.1703</v>
+        <v>0.189772</v>
       </c>
       <c r="O11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q11">
-        <v>1.953661750588889</v>
+        <v>1.639137020715333</v>
       </c>
       <c r="R11">
-        <v>17.5829557553</v>
+        <v>9.834822124292</v>
       </c>
       <c r="S11">
-        <v>0.001903205201478609</v>
+        <v>0.02813918193327944</v>
       </c>
       <c r="T11">
-        <v>0.002050183831219362</v>
+        <v>0.01982374148093142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.41565033333333</v>
+        <v>25.9122055</v>
       </c>
       <c r="H12">
-        <v>103.246951</v>
+        <v>51.824411</v>
       </c>
       <c r="I12">
-        <v>0.2343522621053671</v>
+        <v>0.1610624603486987</v>
       </c>
       <c r="J12">
-        <v>0.2524505598265651</v>
+        <v>0.1134667164029833</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2486943333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N12">
-        <v>0.7460829999999999</v>
+        <v>0.1703</v>
       </c>
       <c r="O12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q12">
-        <v>8.558977215881443</v>
+        <v>1.470949532216667</v>
       </c>
       <c r="R12">
-        <v>77.03079494293299</v>
+        <v>8.8256971933</v>
       </c>
       <c r="S12">
-        <v>0.008337927459393804</v>
+        <v>0.02525189534408389</v>
       </c>
       <c r="T12">
-        <v>0.008981839714313768</v>
+        <v>0.01778968011193759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.41565033333333</v>
+        <v>25.9122055</v>
       </c>
       <c r="H13">
-        <v>103.246951</v>
+        <v>51.824411</v>
       </c>
       <c r="I13">
-        <v>0.2343522621053671</v>
+        <v>0.1610624603486987</v>
       </c>
       <c r="J13">
-        <v>0.2524505598265651</v>
+        <v>0.1134667164029833</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>6.649330666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N13">
-        <v>19.947992</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O13">
-        <v>0.951263872921625</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P13">
-        <v>0.9512638729216248</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q13">
-        <v>228.8410391747102</v>
+        <v>6.271971604658499</v>
       </c>
       <c r="R13">
-        <v>2059.569352572392</v>
+        <v>37.63182962795099</v>
       </c>
       <c r="S13">
-        <v>0.2229308404782952</v>
+        <v>0.1076713830713354</v>
       </c>
       <c r="T13">
-        <v>0.2401470972618507</v>
+        <v>0.07585329481011434</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.5841705</v>
+        <v>43.082999</v>
       </c>
       <c r="H14">
-        <v>63.168341</v>
+        <v>129.248997</v>
       </c>
       <c r="I14">
-        <v>0.2150713914078664</v>
+        <v>0.2677909380635518</v>
       </c>
       <c r="J14">
-        <v>0.1544537915581194</v>
+        <v>0.2829836172758248</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N14">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O14">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P14">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q14">
-        <v>1.111899666338833</v>
+        <v>2.725315628742667</v>
       </c>
       <c r="R14">
-        <v>6.671397998033</v>
+        <v>24.527840658684</v>
       </c>
       <c r="S14">
-        <v>0.001083183016640687</v>
+        <v>0.04678568742796888</v>
       </c>
       <c r="T14">
-        <v>0.0007778892523842961</v>
+        <v>0.04943999659152286</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.5841705</v>
+        <v>43.082999</v>
       </c>
       <c r="H15">
-        <v>63.168341</v>
+        <v>129.248997</v>
       </c>
       <c r="I15">
-        <v>0.2150713914078664</v>
+        <v>0.2677909380635518</v>
       </c>
       <c r="J15">
-        <v>0.1544537915581194</v>
+        <v>0.2829836172758248</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,27 +1370,27 @@
         <v>0.1703</v>
       </c>
       <c r="O15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q15">
-        <v>1.792928078716667</v>
+        <v>2.445678243233333</v>
       </c>
       <c r="R15">
-        <v>10.7575684723</v>
+        <v>22.0111041891</v>
       </c>
       <c r="S15">
-        <v>0.001746622742786484</v>
+        <v>0.04198513252209546</v>
       </c>
       <c r="T15">
-        <v>0.001254339330205994</v>
+        <v>0.0443670900846086</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,362 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.082999</v>
+      </c>
+      <c r="H16">
+        <v>129.248997</v>
+      </c>
+      <c r="I16">
+        <v>0.2677909380635518</v>
+      </c>
+      <c r="J16">
+        <v>0.2829836172758248</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>31.5841705</v>
-      </c>
-      <c r="H16">
-        <v>63.168341</v>
-      </c>
-      <c r="I16">
-        <v>0.2150713914078664</v>
-      </c>
-      <c r="J16">
-        <v>0.1544537915581194</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N16">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q16">
-        <v>7.854804226383833</v>
+        <v>10.428110658953</v>
       </c>
       <c r="R16">
-        <v>47.128825358303</v>
+        <v>93.85299593057699</v>
       </c>
       <c r="S16">
-        <v>0.007651940903149549</v>
+        <v>0.1790201181134875</v>
       </c>
       <c r="T16">
-        <v>0.005495251030523068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>31.5841705</v>
-      </c>
-      <c r="H17">
-        <v>63.168341</v>
-      </c>
-      <c r="I17">
-        <v>0.2150713914078664</v>
-      </c>
-      <c r="J17">
-        <v>0.1544537915581194</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N17">
-        <v>19.947992</v>
-      </c>
-      <c r="O17">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P17">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q17">
-        <v>210.0135934868787</v>
-      </c>
-      <c r="R17">
-        <v>1260.081560921272</v>
-      </c>
-      <c r="S17">
-        <v>0.2045896447452897</v>
-      </c>
-      <c r="T17">
-        <v>0.146926311945006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>33.49554833333333</v>
-      </c>
-      <c r="H18">
-        <v>100.486645</v>
-      </c>
-      <c r="I18">
-        <v>0.2280868571811769</v>
-      </c>
-      <c r="J18">
-        <v>0.2457012971292809</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.03520433333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.105613</v>
-      </c>
-      <c r="O18">
-        <v>0.005036388194404308</v>
-      </c>
-      <c r="P18">
-        <v>0.005036388194404307</v>
-      </c>
-      <c r="Q18">
-        <v>1.179188448709444</v>
-      </c>
-      <c r="R18">
-        <v>10.612696038385</v>
-      </c>
-      <c r="S18">
-        <v>0.001148733954806061</v>
-      </c>
-      <c r="T18">
-        <v>0.001237447112211735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>33.49554833333333</v>
-      </c>
-      <c r="H19">
-        <v>100.486645</v>
-      </c>
-      <c r="I19">
-        <v>0.2280868571811769</v>
-      </c>
-      <c r="J19">
-        <v>0.2457012971292809</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05676666666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.1703</v>
-      </c>
-      <c r="O19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="P19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="Q19">
-        <v>1.901430627055555</v>
-      </c>
-      <c r="R19">
-        <v>17.1128756435</v>
-      </c>
-      <c r="S19">
-        <v>0.001852323033182205</v>
-      </c>
-      <c r="T19">
-        <v>0.001995372191014918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>33.49554833333333</v>
-      </c>
-      <c r="H20">
-        <v>100.486645</v>
-      </c>
-      <c r="I20">
-        <v>0.2280868571811769</v>
-      </c>
-      <c r="J20">
-        <v>0.2457012971292809</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.2486943333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.7460829999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="P20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="Q20">
-        <v>8.330153062392776</v>
-      </c>
-      <c r="R20">
-        <v>74.97137756153499</v>
-      </c>
-      <c r="S20">
-        <v>0.008115013068500756</v>
-      </c>
-      <c r="T20">
-        <v>0.008741710336987568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>33.49554833333333</v>
-      </c>
-      <c r="H21">
-        <v>100.486645</v>
-      </c>
-      <c r="I21">
-        <v>0.2280868571811769</v>
-      </c>
-      <c r="J21">
-        <v>0.2457012971292809</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N21">
-        <v>19.947992</v>
-      </c>
-      <c r="O21">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P21">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q21">
-        <v>222.7229767296489</v>
-      </c>
-      <c r="R21">
-        <v>2004.50679056684</v>
-      </c>
-      <c r="S21">
-        <v>0.2169707871246879</v>
-      </c>
-      <c r="T21">
-        <v>0.2337267674890667</v>
+        <v>0.1891765305996933</v>
       </c>
     </row>
   </sheetData>
